--- a/spec/files/no_variables.xlsx
+++ b/spec/files/no_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="0" windowWidth="25600" windowHeight="27520" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
     <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$3</definedName>
   </definedNames>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="464">
   <si>
     <t>type</t>
   </si>
@@ -99,12 +102,6 @@
     <t>Sample Method</t>
   </si>
   <si>
-    <t>LHS</t>
-  </si>
-  <si>
-    <t>Sensitivity Method</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Path (relative to this excel file)</t>
   </si>
   <si>
-    <t>../analysis</t>
-  </si>
-  <si>
     <t>Files to include (absolute paths here). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Inputs</t>
   </si>
   <si>
-    <t>All Measures</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -1362,9 +1353,6 @@
     <t>|Residential Gas,Small CG,Large CG,Interruptible Industrial G,Non-Xcel Gas Firm,Non-Xcel Gas Interruptible|</t>
   </si>
   <si>
-    <t>Test Run 1</t>
-  </si>
-  <si>
     <t>../../spec/files/measures</t>
   </si>
   <si>
@@ -1375,6 +1363,63 @@
   </si>
   <si>
     <t>../../spec/files/*.epw</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Spreadsheet Version</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
+  </si>
+  <si>
+    <t>Do NOT change this unless advised</t>
+  </si>
+  <si>
+    <t>Server Instance Type</t>
+  </si>
+  <si>
+    <t>m2.xlarge</t>
+  </si>
+  <si>
+    <t>Use a minimum of 2 cores for server</t>
+  </si>
+  <si>
+    <t>Worker Instance Type</t>
+  </si>
+  <si>
+    <t>Depends on how many simuations. If you are testing, then you can select a smaller instance.</t>
+  </si>
+  <si>
+    <t>Example Analysis</t>
+  </si>
+  <si>
+    <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
+  </si>
+  <si>
+    <t>../../spec/files/export/analysis</t>
+  </si>
+  <si>
+    <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased"</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>Algorithm Setup</t>
+  </si>
+  <si>
+    <t>all_variables</t>
+  </si>
+  <si>
+    <t>Number of Generations</t>
+  </si>
+  <si>
+    <t>If there are more than one seed models, then you will submit the same analysis for each seed model.</t>
+  </si>
+  <si>
+    <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1465,6 +1510,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2720,7 +2777,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2760,6 +2817,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4016,6 +4087,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Setup"/>
+      <sheetName val="Variables"/>
+      <sheetName val="BCL Measure Data"/>
+      <sheetName val="Lookups"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>m2.xlarge</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>2 Cores</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>$0.410/hour</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>m2.2xlarge</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>4 Cores</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>$0.820/hour</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>c3.2xlarge</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>8 Cores</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>$1.20/hour</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>cc2.8xlarge</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>16 Cores</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>$2.40/hour</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4316,12 +4453,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4337,149 +4474,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="23">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A11" s="11" t="s">
+      <c r="B23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4518,7 +4774,7 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4534,7 +4790,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
@@ -4547,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>22</v>
@@ -4563,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -4578,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>12</v>
@@ -4625,13 +4881,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4642,19 +4898,19 @@
     <row r="5" spans="1:22" customFormat="1" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17">
@@ -4675,25 +4931,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:22" customFormat="1" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17">
@@ -4704,19 +4960,19 @@
     <row r="7" spans="1:22" customFormat="1" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17">
@@ -4727,19 +4983,19 @@
     <row r="8" spans="1:22" customFormat="1" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17">
@@ -4787,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -4804,19 +5060,19 @@
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -4825,19 +5081,19 @@
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17" t="b">
@@ -4848,19 +5104,19 @@
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17">
@@ -4871,19 +5127,19 @@
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17">
@@ -4894,19 +5150,19 @@
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17">
@@ -4917,19 +5173,19 @@
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="b">
@@ -4940,19 +5196,19 @@
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17">
@@ -4963,19 +5219,19 @@
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
@@ -4986,19 +5242,19 @@
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
@@ -5011,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -5028,19 +5284,19 @@
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -5049,19 +5305,19 @@
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="b">
@@ -5072,19 +5328,19 @@
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17">
@@ -5095,19 +5351,19 @@
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
@@ -5118,19 +5374,19 @@
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
@@ -5141,19 +5397,19 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="b">
@@ -5164,19 +5420,19 @@
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
@@ -5187,19 +5443,19 @@
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
@@ -5210,19 +5466,19 @@
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
@@ -5235,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -5252,19 +5508,19 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="b">
@@ -5275,42 +5531,42 @@
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -5321,19 +5577,19 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -5344,19 +5600,19 @@
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17">
@@ -5367,19 +5623,19 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="b">
@@ -5390,19 +5646,19 @@
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
@@ -5413,19 +5669,19 @@
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17">
@@ -5436,19 +5692,19 @@
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17">
@@ -5461,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -5478,19 +5734,19 @@
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -5499,19 +5755,19 @@
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="b">
@@ -5522,19 +5778,19 @@
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17">
@@ -5545,19 +5801,19 @@
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
@@ -5568,19 +5824,19 @@
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
@@ -5591,19 +5847,19 @@
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="b">
@@ -5614,19 +5870,19 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17">
@@ -5637,19 +5893,19 @@
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17">
@@ -5660,19 +5916,19 @@
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17">
@@ -5685,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -5702,19 +5958,19 @@
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -5723,19 +5979,19 @@
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="b">
@@ -5746,19 +6002,19 @@
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17">
@@ -5769,19 +6025,19 @@
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17">
@@ -5792,19 +6048,19 @@
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17">
@@ -5815,19 +6071,19 @@
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="b">
@@ -5838,19 +6094,19 @@
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17">
@@ -5861,19 +6117,19 @@
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17">
@@ -5884,19 +6140,19 @@
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17">
@@ -5909,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -5926,19 +6182,19 @@
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -5947,19 +6203,19 @@
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17" t="b">
@@ -5970,19 +6226,19 @@
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17">
@@ -5993,19 +6249,19 @@
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17">
@@ -6016,19 +6272,19 @@
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17">
@@ -6039,19 +6295,19 @@
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="b">
@@ -6062,19 +6318,19 @@
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17">
@@ -6085,19 +6341,19 @@
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17">
@@ -6108,19 +6364,19 @@
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17">
@@ -6133,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -6150,19 +6406,19 @@
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -6171,44 +6427,44 @@
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17" t="b">
@@ -6219,19 +6475,19 @@
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17">
@@ -6242,19 +6498,19 @@
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17">
@@ -6265,19 +6521,19 @@
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17">
@@ -6288,19 +6544,19 @@
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17" t="b">
@@ -6311,19 +6567,19 @@
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17">
@@ -6334,19 +6590,19 @@
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17">
@@ -6357,19 +6613,19 @@
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17">
@@ -6382,13 +6638,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -6399,19 +6655,19 @@
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -6420,19 +6676,19 @@
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17">
@@ -6443,44 +6699,44 @@
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17">
@@ -6491,19 +6747,19 @@
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17">
@@ -6514,19 +6770,19 @@
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17">
@@ -6537,19 +6793,19 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17">
@@ -6560,19 +6816,19 @@
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17">
@@ -6583,19 +6839,19 @@
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17">
@@ -6606,19 +6862,19 @@
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17" t="b">
@@ -6629,19 +6885,19 @@
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17">
@@ -6652,19 +6908,19 @@
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17">
@@ -6675,19 +6931,19 @@
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17">
@@ -6700,13 +6956,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -6717,19 +6973,19 @@
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17">
@@ -6740,42 +6996,42 @@
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17" t="b">
@@ -6786,19 +7042,19 @@
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="17">
@@ -6809,19 +7065,19 @@
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17">
@@ -6832,19 +7088,19 @@
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="17">
@@ -6855,19 +7111,19 @@
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="17" t="b">
@@ -6878,19 +7134,19 @@
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="17">
@@ -6901,19 +7157,19 @@
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="17">
@@ -6924,19 +7180,19 @@
     <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="17">
@@ -6949,13 +7205,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
@@ -6966,26 +7222,26 @@
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -6993,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
@@ -7010,19 +7266,19 @@
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
@@ -7031,26 +7287,26 @@
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -7058,13 +7314,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
@@ -7075,19 +7331,19 @@
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="17">
@@ -7098,44 +7354,44 @@
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G105" s="17"/>
       <c r="H105" s="17" t="b">
@@ -7146,19 +7402,19 @@
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
@@ -7169,13 +7425,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
@@ -7186,44 +7442,44 @@
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G109" s="17"/>
       <c r="H109" s="17">
@@ -7234,19 +7490,19 @@
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="17">
@@ -7257,19 +7513,19 @@
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G111" s="17"/>
       <c r="H111" s="17">
@@ -7280,19 +7536,19 @@
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G112" s="17"/>
       <c r="H112" s="17">
@@ -7303,19 +7559,19 @@
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G113" s="17"/>
       <c r="H113" s="17">
@@ -7326,19 +7582,19 @@
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="17">
@@ -7351,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
@@ -7368,19 +7624,19 @@
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="17">
@@ -7391,19 +7647,19 @@
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G117" s="17"/>
       <c r="H117" s="17">
@@ -7414,19 +7670,19 @@
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G118" s="17"/>
       <c r="H118" s="17" t="b">
@@ -7439,13 +7695,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
@@ -7456,19 +7712,19 @@
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G120" s="17"/>
       <c r="H120" s="17">
@@ -7479,19 +7735,19 @@
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G121" s="17"/>
       <c r="H121" s="17">
@@ -7502,19 +7758,19 @@
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G122" s="17"/>
       <c r="H122" s="17">
@@ -7525,19 +7781,19 @@
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G123" s="17"/>
       <c r="H123" s="17">
@@ -7548,19 +7804,19 @@
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G124" s="17"/>
       <c r="H124" s="17" t="b">
@@ -7571,19 +7827,19 @@
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G125" s="17"/>
       <c r="H125" s="17" t="b">
@@ -7596,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
@@ -7613,44 +7869,44 @@
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E127" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G127" s="17"/>
       <c r="H127" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G128" s="17"/>
       <c r="H128" s="17" t="b">
@@ -7661,19 +7917,19 @@
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G129" s="17"/>
       <c r="H129" s="17">
@@ -7684,19 +7940,19 @@
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G130" s="17"/>
       <c r="H130" s="17">
@@ -7707,19 +7963,19 @@
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G131" s="17"/>
       <c r="H131" s="17">
@@ -7730,19 +7986,19 @@
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G132" s="17"/>
       <c r="H132" s="17" t="b">
@@ -7753,19 +8009,19 @@
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E133" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="17">
@@ -7776,19 +8032,19 @@
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E134" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="17">
@@ -7799,19 +8055,19 @@
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E135" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G135" s="17"/>
       <c r="H135" s="17">
@@ -7824,13 +8080,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
@@ -7841,44 +8097,44 @@
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E137" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G137" s="17"/>
       <c r="H137" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
@@ -7887,19 +8143,19 @@
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E139" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G139" s="17"/>
       <c r="H139" s="17">
@@ -7910,19 +8166,19 @@
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G140" s="17"/>
       <c r="H140" s="17">
@@ -7933,19 +8189,19 @@
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G141" s="17"/>
       <c r="H141" s="17">
@@ -7956,19 +8212,19 @@
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G142" s="17"/>
       <c r="H142" s="17">
@@ -7979,19 +8235,19 @@
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G143" s="17"/>
       <c r="H143" s="17" t="b">
@@ -8002,19 +8258,19 @@
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G144" s="17"/>
       <c r="H144" s="17">
@@ -8025,19 +8281,19 @@
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G145" s="17"/>
       <c r="H145" s="17">
@@ -8048,19 +8304,19 @@
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G146" s="17"/>
       <c r="H146" s="17">
@@ -8071,19 +8327,19 @@
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G147" s="17"/>
       <c r="H147" s="17" t="b">
@@ -8094,19 +8350,19 @@
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G148" s="17"/>
       <c r="H148" s="17">
@@ -8117,19 +8373,19 @@
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E149" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G149" s="17"/>
       <c r="H149" s="17">
@@ -8140,19 +8396,19 @@
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G150" s="17"/>
       <c r="H150" s="17">
@@ -8165,13 +8421,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
@@ -8182,19 +8438,19 @@
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G152" s="17"/>
       <c r="H152" s="17">
@@ -8207,13 +8463,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E153" s="17"/>
       <c r="F153" s="17"/>
@@ -8224,46 +8480,46 @@
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E154" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G154" s="17"/>
       <c r="H154" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I154" s="17"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E155" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G155" s="17"/>
       <c r="H155" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I155" s="17"/>
     </row>
@@ -8272,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E156" s="17"/>
       <c r="F156" s="17"/>
@@ -8289,44 +8545,44 @@
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E157" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I157" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17">
@@ -8337,19 +8593,19 @@
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E159" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17" t="b">
@@ -8360,19 +8616,19 @@
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G160" s="17"/>
       <c r="H160" s="17">
@@ -8383,19 +8639,19 @@
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="17">
@@ -8406,19 +8662,19 @@
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E162" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G162" s="17"/>
       <c r="H162" s="17">
@@ -8429,19 +8685,19 @@
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E163" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17" t="b">
@@ -8452,19 +8708,19 @@
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17">
@@ -8475,19 +8731,19 @@
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E165" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17">
@@ -8498,19 +8754,19 @@
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E166" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17">
@@ -8523,13 +8779,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E167" s="17"/>
       <c r="F167" s="17"/>
@@ -8540,44 +8796,44 @@
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E168" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I168" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E169" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G169" s="17"/>
       <c r="H169" s="17">
@@ -8588,19 +8844,19 @@
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E170" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G170" s="17"/>
       <c r="H170" s="17" t="b">
@@ -8611,19 +8867,19 @@
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E171" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G171" s="17"/>
       <c r="H171" s="17">
@@ -8634,19 +8890,19 @@
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E172" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G172" s="17"/>
       <c r="H172" s="17">
@@ -8657,19 +8913,19 @@
     <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E173" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G173" s="17"/>
       <c r="H173" s="17">
@@ -8680,19 +8936,19 @@
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E174" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G174" s="17"/>
       <c r="H174" s="17" t="b">
@@ -8703,19 +8959,19 @@
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E175" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G175" s="17"/>
       <c r="H175" s="17">
@@ -8726,19 +8982,19 @@
     <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E176" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G176" s="17"/>
       <c r="H176" s="17">
@@ -8749,19 +9005,19 @@
     <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E177" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G177" s="17"/>
       <c r="H177" s="17">
@@ -8774,13 +9030,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
@@ -8791,19 +9047,19 @@
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E179" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G179" s="17"/>
       <c r="H179" s="17">
@@ -8814,19 +9070,19 @@
     <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E180" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G180" s="17"/>
       <c r="H180" s="17">
@@ -8837,19 +9093,19 @@
     <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E181" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G181" s="17"/>
       <c r="H181" s="17">
@@ -8860,19 +9116,19 @@
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E182" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G182" s="17"/>
       <c r="H182" s="17">
@@ -8885,13 +9141,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="17"/>
@@ -8902,19 +9158,19 @@
     <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E184" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G184" s="17"/>
       <c r="H184" s="17">
@@ -8925,19 +9181,19 @@
     <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E185" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G185" s="17"/>
       <c r="H185" s="17">
@@ -8948,19 +9204,19 @@
     <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E186" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G186" s="17"/>
       <c r="H186" s="17">
@@ -8971,19 +9227,19 @@
     <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E187" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G187" s="17"/>
       <c r="H187" s="17">
@@ -8996,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E188" s="17"/>
       <c r="F188" s="17"/>
@@ -9013,19 +9269,19 @@
     <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E189" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
@@ -9034,19 +9290,19 @@
     <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E190" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G190" s="17"/>
       <c r="H190" s="17" t="b">
@@ -9059,13 +9315,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="17"/>
@@ -9076,19 +9332,19 @@
     <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E192" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G192" s="17"/>
       <c r="H192" s="17" t="b">
@@ -9099,44 +9355,44 @@
     <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E193" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G193" s="17"/>
       <c r="H193" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I193" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E194" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
@@ -9145,51 +9401,51 @@
     <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E195" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G195" s="17"/>
       <c r="H195" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E196" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G196" s="17"/>
       <c r="H196" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -9197,13 +9453,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E197" s="17"/>
       <c r="F197" s="17"/>
@@ -9214,44 +9470,44 @@
     <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E198" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G198" s="17"/>
       <c r="H198" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I198" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E199" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G199" s="17"/>
       <c r="H199" s="17">
@@ -9262,19 +9518,19 @@
     <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E200" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G200" s="17"/>
       <c r="H200" s="17">
@@ -9285,19 +9541,19 @@
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E201" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G201" s="17"/>
       <c r="H201" s="17">
@@ -9308,19 +9564,19 @@
     <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E202" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G202" s="17"/>
       <c r="H202" s="17">
@@ -9331,19 +9587,19 @@
     <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E203" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G203" s="17"/>
       <c r="H203" s="17" t="b">
@@ -9354,19 +9610,19 @@
     <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E204" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G204" s="17"/>
       <c r="H204" s="17">
@@ -9377,19 +9633,19 @@
     <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E205" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G205" s="17"/>
       <c r="H205" s="17">
@@ -9400,19 +9656,19 @@
     <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E206" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G206" s="17"/>
       <c r="H206" s="17">
@@ -9425,13 +9681,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E207" s="17"/>
       <c r="F207" s="17"/>
@@ -9442,44 +9698,44 @@
     <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E208" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G208" s="17"/>
       <c r="H208" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I208" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E209" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G209" s="17"/>
       <c r="H209" s="17">
@@ -9490,19 +9746,19 @@
     <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E210" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G210" s="17"/>
       <c r="H210" s="17">
@@ -9513,19 +9769,19 @@
     <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E211" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G211" s="17"/>
       <c r="H211" s="17">
@@ -9536,19 +9792,19 @@
     <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E212" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G212" s="17"/>
       <c r="H212" s="17">
@@ -9559,19 +9815,19 @@
     <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E213" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G213" s="17"/>
       <c r="H213" s="17" t="b">
@@ -9582,19 +9838,19 @@
     <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E214" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G214" s="17"/>
       <c r="H214" s="17">
@@ -9605,19 +9861,19 @@
     <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E215" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="17">
@@ -9628,19 +9884,19 @@
     <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E216" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G216" s="17"/>
       <c r="H216" s="17">
@@ -9653,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E217" s="17"/>
       <c r="F217" s="17"/>
@@ -9670,19 +9926,19 @@
     <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E218" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
@@ -9691,19 +9947,19 @@
     <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E219" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G219" s="17"/>
       <c r="H219" s="17">
@@ -9714,19 +9970,19 @@
     <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E220" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G220" s="17"/>
       <c r="H220" s="17" t="b">
@@ -9737,19 +9993,19 @@
     <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E221" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G221" s="17"/>
       <c r="H221" s="17">
@@ -9760,19 +10016,19 @@
     <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E222" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G222" s="17"/>
       <c r="H222" s="17">
@@ -9783,19 +10039,19 @@
     <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E223" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G223" s="17"/>
       <c r="H223" s="17" t="b">
@@ -9806,19 +10062,19 @@
     <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E224" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G224" s="17"/>
       <c r="H224" s="17">
@@ -9829,19 +10085,19 @@
     <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E225" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G225" s="17"/>
       <c r="H225" s="17">
@@ -9852,19 +10108,19 @@
     <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E226" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G226" s="17"/>
       <c r="H226" s="17" t="b">
@@ -9875,19 +10131,19 @@
     <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E227" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G227" s="17"/>
       <c r="H227" s="17">
@@ -9898,19 +10154,19 @@
     <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E228" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G228" s="17"/>
       <c r="H228" s="17">
@@ -9921,19 +10177,19 @@
     <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E229" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G229" s="17"/>
       <c r="H229" s="17">
@@ -9944,19 +10200,19 @@
     <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E230" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G230" s="17"/>
       <c r="H230" s="17">
@@ -9967,19 +10223,19 @@
     <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E231" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G231" s="17"/>
       <c r="H231" s="17">
@@ -9990,19 +10246,19 @@
     <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E232" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G232" s="17"/>
       <c r="H232" s="17">
@@ -10013,19 +10269,19 @@
     <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E233" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G233" s="17"/>
       <c r="H233" s="17">
@@ -10038,13 +10294,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E234" s="17"/>
       <c r="F234" s="17"/>
@@ -10055,19 +10311,19 @@
     <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E235" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G235" s="17"/>
       <c r="H235" s="17"/>
@@ -10076,19 +10332,19 @@
     <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E236" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G236" s="17"/>
       <c r="H236" s="17">
@@ -10099,19 +10355,19 @@
     <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E237" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G237" s="17"/>
       <c r="H237" s="17" t="b">
@@ -10122,19 +10378,19 @@
     <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E238" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G238" s="17"/>
       <c r="H238" s="17">
@@ -10145,19 +10401,19 @@
     <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E239" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G239" s="17"/>
       <c r="H239" s="17">
@@ -10168,19 +10424,19 @@
     <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E240" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G240" s="17"/>
       <c r="H240" s="17" t="b">
@@ -10191,19 +10447,19 @@
     <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E241" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G241" s="17"/>
       <c r="H241" s="17">
@@ -10214,19 +10470,19 @@
     <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E242" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="17">
@@ -10237,19 +10493,19 @@
     <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E243" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G243" s="17"/>
       <c r="H243" s="17" t="b">
@@ -10260,19 +10516,19 @@
     <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E244" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G244" s="17"/>
       <c r="H244" s="17">
@@ -10283,19 +10539,19 @@
     <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E245" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G245" s="17"/>
       <c r="H245" s="17">
@@ -10306,19 +10562,19 @@
     <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E246" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G246" s="17"/>
       <c r="H246" s="17">
@@ -10329,19 +10585,19 @@
     <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E247" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G247" s="17"/>
       <c r="H247" s="17">
@@ -10352,19 +10608,19 @@
     <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E248" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G248" s="17"/>
       <c r="H248" s="17">
@@ -10375,19 +10631,19 @@
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E249" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G249" s="17"/>
       <c r="H249" s="17">
@@ -10398,19 +10654,19 @@
     <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E250" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G250" s="17"/>
       <c r="H250" s="17">
@@ -10423,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E251" s="17"/>
       <c r="F251" s="17"/>
@@ -10440,44 +10696,44 @@
     <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E252" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G252" s="17"/>
       <c r="H252" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I252" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E253" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G253" s="17"/>
       <c r="H253" s="17">
@@ -10488,19 +10744,19 @@
     <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E254" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G254" s="17"/>
       <c r="H254" s="17">
@@ -10511,19 +10767,19 @@
     <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E255" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G255" s="17"/>
       <c r="H255" s="17">
@@ -10534,19 +10790,19 @@
     <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E256" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G256" s="17"/>
       <c r="H256" s="17">
@@ -10559,13 +10815,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E257" s="17"/>
       <c r="F257" s="17"/>
@@ -10576,44 +10832,44 @@
     <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E258" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G258" s="17"/>
       <c r="H258" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I258" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E259" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G259" s="17"/>
       <c r="H259" s="17">
@@ -10626,13 +10882,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E260" s="17"/>
       <c r="F260" s="17"/>
@@ -10645,13 +10901,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E261" s="17"/>
       <c r="F261" s="17"/>
@@ -10664,13 +10920,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E262" s="17"/>
       <c r="F262" s="17"/>
@@ -10681,19 +10937,19 @@
     <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E263" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G263" s="17"/>
       <c r="H263" s="17"/>
@@ -10702,19 +10958,19 @@
     <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E264" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G264" s="17"/>
       <c r="H264" s="17" t="b">
@@ -10725,19 +10981,19 @@
     <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E265" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G265" s="17"/>
       <c r="H265" s="17" t="b">
@@ -10748,19 +11004,19 @@
     <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E266" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G266" s="17"/>
       <c r="H266" s="17" t="b">
@@ -10771,19 +11027,19 @@
     <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E267" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G267" s="17"/>
       <c r="H267" s="17">
@@ -10794,19 +11050,19 @@
     <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E268" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G268" s="17"/>
       <c r="H268" s="17">
@@ -10817,19 +11073,19 @@
     <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E269" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G269" s="17"/>
       <c r="H269" s="17">
@@ -10840,19 +11096,19 @@
     <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E270" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G270" s="17"/>
       <c r="H270" s="17" t="b">
@@ -10863,19 +11119,19 @@
     <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E271" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G271" s="17"/>
       <c r="H271" s="17">
@@ -10886,19 +11142,19 @@
     <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E272" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G272" s="17"/>
       <c r="H272" s="17">
@@ -10909,19 +11165,19 @@
     <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E273" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G273" s="17"/>
       <c r="H273" s="17">
@@ -10934,13 +11190,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -10951,19 +11207,19 @@
     <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E275" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G275" s="17"/>
       <c r="H275" s="17">
@@ -10976,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -10993,44 +11249,44 @@
     <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E277" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G277" s="17"/>
       <c r="H277" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I277" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E278" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G278" s="17"/>
       <c r="H278" s="17">
@@ -11041,19 +11297,19 @@
     <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E279" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G279" s="17"/>
       <c r="H279" s="17">
@@ -11064,19 +11320,19 @@
     <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E280" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G280" s="17"/>
       <c r="H280" s="17" t="b">
@@ -11087,19 +11343,19 @@
     <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E281" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G281" s="17"/>
       <c r="H281" s="17">
@@ -11110,19 +11366,19 @@
     <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E282" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G282" s="17"/>
       <c r="H282" s="17">
@@ -11133,19 +11389,19 @@
     <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E283" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G283" s="17"/>
       <c r="H283" s="17">
@@ -11156,19 +11412,19 @@
     <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E284" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G284" s="17"/>
       <c r="H284" s="17" t="b">
@@ -11179,19 +11435,19 @@
     <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E285" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G285" s="17"/>
       <c r="H285" s="17">
@@ -11202,19 +11458,19 @@
     <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E286" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G286" s="17"/>
       <c r="H286" s="17">
@@ -11225,19 +11481,19 @@
     <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E287" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G287" s="17"/>
       <c r="H287" s="17">
@@ -11250,13 +11506,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -11267,19 +11523,19 @@
     <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E289" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G289" s="17"/>
       <c r="H289" s="17">
@@ -11292,13 +11548,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E290" s="17"/>
       <c r="F290" s="17"/>
@@ -11309,19 +11565,19 @@
     <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E291" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G291" s="17"/>
       <c r="H291" s="17"/>
@@ -11332,13 +11588,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C292" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E292" s="17"/>
       <c r="F292" s="17"/>
@@ -11349,19 +11605,19 @@
     <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E293" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G293" s="17"/>
       <c r="H293" s="17"/>
@@ -11372,13 +11628,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E294" s="17"/>
       <c r="F294" s="17"/>
@@ -11389,19 +11645,19 @@
     <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E295" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G295" s="17"/>
       <c r="H295" s="17"/>
@@ -11412,13 +11668,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E296" s="17"/>
       <c r="F296" s="17"/>
@@ -11429,19 +11685,19 @@
     <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E297" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G297" s="17"/>
       <c r="H297" s="17">
@@ -11454,13 +11710,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C298" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E298" s="17"/>
       <c r="F298" s="17"/>
@@ -11471,44 +11727,44 @@
     <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E299" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G299" s="17"/>
       <c r="H299" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I299" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C300" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E300" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G300" s="17"/>
       <c r="H300" s="17">
@@ -11519,19 +11775,19 @@
     <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E301" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G301" s="17"/>
       <c r="H301" s="17">
@@ -11542,19 +11798,19 @@
     <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E302" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G302" s="17"/>
       <c r="H302" s="17">
@@ -11565,19 +11821,19 @@
     <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E303" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G303" s="17"/>
       <c r="H303" s="17">
@@ -11588,19 +11844,19 @@
     <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E304" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G304" s="17"/>
       <c r="H304" s="17" t="b">
@@ -11611,19 +11867,19 @@
     <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C305" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E305" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G305" s="17"/>
       <c r="H305" s="17">
@@ -11634,19 +11890,19 @@
     <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E306" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G306" s="17"/>
       <c r="H306" s="17">
@@ -11657,19 +11913,19 @@
     <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E307" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G307" s="17"/>
       <c r="H307" s="17">
@@ -11682,13 +11938,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C308" s="17" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E308" s="17"/>
       <c r="F308" s="17"/>
@@ -11699,19 +11955,19 @@
     <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E309" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G309" s="17"/>
       <c r="H309" s="17">
@@ -11722,19 +11978,19 @@
     <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C310" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E310" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G310" s="17"/>
       <c r="H310" s="17">
@@ -11745,19 +12001,19 @@
     <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E311" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G311" s="17"/>
       <c r="H311" s="17">
@@ -11768,19 +12024,19 @@
     <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E312" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G312" s="17"/>
       <c r="H312" s="17">
@@ -11793,13 +12049,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C313" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E313" s="17"/>
       <c r="F313" s="17"/>
@@ -11810,19 +12066,19 @@
     <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E314" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G314" s="17"/>
       <c r="H314" s="17">
@@ -11833,19 +12089,19 @@
     <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E315" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G315" s="17"/>
       <c r="H315" s="17">
@@ -11856,26 +12112,26 @@
     <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E316" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G316" s="17"/>
       <c r="H316" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I316" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -11883,13 +12139,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E317" s="17"/>
       <c r="F317" s="17"/>
@@ -11900,44 +12156,44 @@
     <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C318" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E318" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G318" s="17"/>
       <c r="H318" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I318" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E319" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G319" s="17"/>
       <c r="H319" s="17">
@@ -11950,13 +12206,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E320" s="17"/>
       <c r="F320" s="17"/>
@@ -11967,19 +12223,19 @@
     <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C321" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E321" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G321" s="17"/>
       <c r="H321" s="17"/>
@@ -11988,19 +12244,19 @@
     <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C322" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E322" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G322" s="17"/>
       <c r="H322" s="17"/>
@@ -12009,19 +12265,19 @@
     <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E323" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G323" s="17"/>
       <c r="H323" s="17" t="b">
@@ -12034,13 +12290,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E324" s="17"/>
       <c r="F324" s="17"/>
@@ -12053,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E325" s="17"/>
       <c r="F325" s="17"/>
@@ -12070,51 +12326,51 @@
     <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E326" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G326" s="17"/>
       <c r="H326" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I326" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E327" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G327" s="17"/>
       <c r="H327" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I327" s="17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/spec/files/no_variables.xlsx
+++ b/spec/files/no_variables.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" activeTab="1"/>
+    <workbookView xWindow="564" yWindow="564" windowWidth="25044" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
+    <sheet name="Outputs" sheetId="11" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$3</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="471">
   <si>
     <t>type</t>
   </si>
@@ -1420,6 +1422,27 @@
   </si>
   <si>
     <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -2814,9 +2837,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2831,6 +2851,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4088,7 +4111,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -4446,17 +4469,17 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4476,39 +4499,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="21" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -4519,11 +4542,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -4538,11 +4561,11 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>450</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -4557,102 +4580,102 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="11"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>454</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -4661,19 +4684,19 @@
       <c r="D20" s="11"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -4686,28 +4709,28 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>442</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>443</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -4752,25 +4775,25 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="4"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="4"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="7" t="s">
@@ -4789,16 +4812,16 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="15">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+    </row>
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4811,7 +4834,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4876,7 +4899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="15">
+    <row r="4" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="b">
         <v>1</v>
       </c>
@@ -4895,7 +4918,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="15">
+    <row r="5" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
@@ -4934,7 +4957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="15">
+    <row r="6" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>24</v>
@@ -4957,7 +4980,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:22" customFormat="1" ht="15">
+    <row r="7" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>24</v>
@@ -4980,7 +5003,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:22" customFormat="1" ht="15">
+    <row r="8" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
@@ -5020,25 +5043,184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="4"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+    </row>
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -5057,7 +5239,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -5078,7 +5260,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>24</v>
@@ -5101,7 +5283,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>24</v>
@@ -5124,7 +5306,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
@@ -5147,7 +5329,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>24</v>
@@ -5170,7 +5352,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>24</v>
@@ -5193,7 +5375,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
@@ -5216,7 +5398,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
@@ -5239,7 +5421,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
@@ -5262,7 +5444,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -5281,7 +5463,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>24</v>
@@ -5302,7 +5484,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>24</v>
@@ -5325,7 +5507,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>24</v>
@@ -5348,7 +5530,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -5371,7 +5553,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>24</v>
@@ -5394,7 +5576,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>24</v>
@@ -5417,7 +5599,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>24</v>
@@ -5440,7 +5622,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>24</v>
@@ -5463,7 +5645,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>24</v>
@@ -5486,7 +5668,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -5505,7 +5687,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>24</v>
@@ -5528,7 +5710,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>24</v>
@@ -5551,7 +5733,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>24</v>
@@ -5574,7 +5756,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>24</v>
@@ -5597,7 +5779,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>24</v>
@@ -5620,7 +5802,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>24</v>
@@ -5643,7 +5825,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>24</v>
@@ -5666,7 +5848,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -5689,7 +5871,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>24</v>
@@ -5712,7 +5894,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -5731,7 +5913,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>24</v>
@@ -5752,7 +5934,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>24</v>
@@ -5775,7 +5957,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>24</v>
@@ -5798,7 +5980,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>24</v>
@@ -5821,7 +6003,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>24</v>
@@ -5844,7 +6026,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>24</v>
@@ -5867,7 +6049,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>24</v>
@@ -5890,7 +6072,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>24</v>
@@ -5913,7 +6095,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>24</v>
@@ -5936,7 +6118,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -5955,7 +6137,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>24</v>
@@ -5976,7 +6158,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>24</v>
@@ -5999,7 +6181,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>24</v>
@@ -6022,7 +6204,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>24</v>
@@ -6045,7 +6227,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>24</v>
@@ -6068,7 +6250,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
@@ -6091,7 +6273,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>24</v>
@@ -6114,7 +6296,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>24</v>
@@ -6137,7 +6319,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>24</v>
@@ -6160,7 +6342,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -6179,7 +6361,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>24</v>
@@ -6200,7 +6382,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>24</v>
@@ -6223,7 +6405,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>24</v>
@@ -6246,7 +6428,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>24</v>
@@ -6269,7 +6451,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>24</v>
@@ -6292,7 +6474,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>24</v>
@@ -6315,7 +6497,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>24</v>
@@ -6338,7 +6520,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>24</v>
@@ -6361,7 +6543,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>24</v>
@@ -6384,7 +6566,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -6403,7 +6585,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>24</v>
@@ -6424,7 +6606,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>24</v>
@@ -6449,7 +6631,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>24</v>
@@ -6472,7 +6654,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>24</v>
@@ -6495,7 +6677,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>24</v>
@@ -6518,7 +6700,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>24</v>
@@ -6541,7 +6723,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>24</v>
@@ -6564,7 +6746,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>24</v>
@@ -6587,7 +6769,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>24</v>
@@ -6610,7 +6792,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>24</v>
@@ -6633,7 +6815,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -6652,7 +6834,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>24</v>
@@ -6673,7 +6855,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>24</v>
@@ -6696,7 +6878,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>24</v>
@@ -6721,7 +6903,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>24</v>
@@ -6744,7 +6926,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>24</v>
@@ -6767,7 +6949,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>24</v>
@@ -6790,7 +6972,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>24</v>
@@ -6813,7 +6995,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>24</v>
@@ -6836,7 +7018,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>24</v>
@@ -6859,7 +7041,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>24</v>
@@ -6882,7 +7064,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>24</v>
@@ -6905,7 +7087,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>24</v>
@@ -6928,7 +7110,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>24</v>
@@ -6951,7 +7133,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -6970,7 +7152,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>24</v>
@@ -6993,7 +7175,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>24</v>
@@ -7016,7 +7198,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>24</v>
@@ -7039,7 +7221,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>24</v>
@@ -7062,7 +7244,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>24</v>
@@ -7085,7 +7267,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>24</v>
@@ -7108,7 +7290,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>24</v>
@@ -7131,7 +7313,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>24</v>
@@ -7154,7 +7336,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>24</v>
@@ -7177,7 +7359,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>24</v>
@@ -7200,7 +7382,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -7219,7 +7401,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>24</v>
@@ -7244,7 +7426,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -7263,7 +7445,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>24</v>
@@ -7284,7 +7466,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="19" customHeight="1">
+    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>24</v>
@@ -7309,7 +7491,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -7328,7 +7510,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>24</v>
@@ -7351,7 +7533,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>24</v>
@@ -7376,7 +7558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>24</v>
@@ -7399,7 +7581,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>24</v>
@@ -7420,7 +7602,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -7439,7 +7621,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>24</v>
@@ -7464,7 +7646,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>24</v>
@@ -7487,7 +7669,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>24</v>
@@ -7510,7 +7692,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>24</v>
@@ -7533,7 +7715,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>24</v>
@@ -7556,7 +7738,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>24</v>
@@ -7579,7 +7761,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>24</v>
@@ -7602,7 +7784,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -7621,7 +7803,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>24</v>
@@ -7644,7 +7826,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>24</v>
@@ -7667,7 +7849,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>24</v>
@@ -7690,7 +7872,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -7709,7 +7891,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>24</v>
@@ -7732,7 +7914,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>24</v>
@@ -7755,7 +7937,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>24</v>
@@ -7778,7 +7960,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>24</v>
@@ -7801,7 +7983,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>24</v>
@@ -7824,7 +8006,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>24</v>
@@ -7847,7 +8029,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -7866,7 +8048,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>24</v>
@@ -7891,7 +8073,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>24</v>
@@ -7914,7 +8096,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>24</v>
@@ -7937,7 +8119,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>24</v>
@@ -7960,7 +8142,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>24</v>
@@ -7983,7 +8165,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>24</v>
@@ -8006,7 +8188,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>24</v>
@@ -8029,7 +8211,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>24</v>
@@ -8052,7 +8234,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>24</v>
@@ -8075,7 +8257,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -8094,7 +8276,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>24</v>
@@ -8119,7 +8301,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>24</v>
@@ -8140,7 +8322,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>24</v>
@@ -8163,7 +8345,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>24</v>
@@ -8186,7 +8368,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>24</v>
@@ -8209,7 +8391,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>24</v>
@@ -8232,7 +8414,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>24</v>
@@ -8255,7 +8437,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>24</v>
@@ -8278,7 +8460,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>24</v>
@@ -8301,7 +8483,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>24</v>
@@ -8324,7 +8506,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>24</v>
@@ -8347,7 +8529,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>24</v>
@@ -8370,7 +8552,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>24</v>
@@ -8393,7 +8575,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>24</v>
@@ -8416,7 +8598,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -8435,7 +8617,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>24</v>
@@ -8458,7 +8640,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -8477,7 +8659,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>24</v>
@@ -8500,7 +8682,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>24</v>
@@ -8523,7 +8705,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -8542,7 +8724,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>24</v>
@@ -8567,7 +8749,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>24</v>
@@ -8590,7 +8772,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>24</v>
@@ -8613,7 +8795,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>24</v>
@@ -8636,7 +8818,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>24</v>
@@ -8659,7 +8841,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>24</v>
@@ -8682,7 +8864,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>24</v>
@@ -8705,7 +8887,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>24</v>
@@ -8728,7 +8910,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>24</v>
@@ -8751,7 +8933,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>24</v>
@@ -8774,7 +8956,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -8793,7 +8975,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>24</v>
@@ -8818,7 +9000,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>24</v>
@@ -8841,7 +9023,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>24</v>
@@ -8864,7 +9046,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>24</v>
@@ -8887,7 +9069,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>24</v>
@@ -8910,7 +9092,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>24</v>
@@ -8933,7 +9115,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>24</v>
@@ -8956,7 +9138,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>24</v>
@@ -8979,7 +9161,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>24</v>
@@ -9002,7 +9184,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>24</v>
@@ -9025,7 +9207,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -9044,7 +9226,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>24</v>
@@ -9067,7 +9249,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>24</v>
@@ -9090,7 +9272,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>24</v>
@@ -9113,7 +9295,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>24</v>
@@ -9136,7 +9318,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -9155,7 +9337,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>24</v>
@@ -9178,7 +9360,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>24</v>
@@ -9201,7 +9383,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>24</v>
@@ -9224,7 +9406,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>24</v>
@@ -9247,7 +9429,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -9266,7 +9448,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>24</v>
@@ -9287,7 +9469,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>24</v>
@@ -9310,7 +9492,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -9329,7 +9511,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>24</v>
@@ -9352,7 +9534,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>24</v>
@@ -9377,7 +9559,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>24</v>
@@ -9398,7 +9580,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>24</v>
@@ -9423,7 +9605,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>24</v>
@@ -9448,7 +9630,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -9467,7 +9649,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>24</v>
@@ -9492,7 +9674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>24</v>
@@ -9515,7 +9697,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>24</v>
@@ -9538,7 +9720,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>24</v>
@@ -9561,7 +9743,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>24</v>
@@ -9584,7 +9766,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>24</v>
@@ -9607,7 +9789,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>24</v>
@@ -9630,7 +9812,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>24</v>
@@ -9653,7 +9835,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>24</v>
@@ -9676,7 +9858,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -9695,7 +9877,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>24</v>
@@ -9720,7 +9902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>24</v>
@@ -9743,7 +9925,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>24</v>
@@ -9766,7 +9948,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>24</v>
@@ -9789,7 +9971,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>24</v>
@@ -9812,7 +9994,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>24</v>
@@ -9835,7 +10017,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>24</v>
@@ -9858,7 +10040,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>24</v>
@@ -9881,7 +10063,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>24</v>
@@ -9904,7 +10086,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -9923,7 +10105,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>24</v>
@@ -9944,7 +10126,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>24</v>
@@ -9967,7 +10149,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>24</v>
@@ -9990,7 +10172,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>24</v>
@@ -10013,7 +10195,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>24</v>
@@ -10036,7 +10218,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>24</v>
@@ -10059,7 +10241,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>24</v>
@@ -10082,7 +10264,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>24</v>
@@ -10105,7 +10287,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>24</v>
@@ -10128,7 +10310,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>24</v>
@@ -10151,7 +10333,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>24</v>
@@ -10174,7 +10356,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>24</v>
@@ -10197,7 +10379,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>24</v>
@@ -10220,7 +10402,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>24</v>
@@ -10243,7 +10425,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>24</v>
@@ -10266,7 +10448,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>24</v>
@@ -10289,7 +10471,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -10308,7 +10490,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>24</v>
@@ -10329,7 +10511,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>24</v>
@@ -10352,7 +10534,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>24</v>
@@ -10375,7 +10557,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>24</v>
@@ -10398,7 +10580,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>24</v>
@@ -10421,7 +10603,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>24</v>
@@ -10444,7 +10626,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>24</v>
@@ -10467,7 +10649,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>24</v>
@@ -10490,7 +10672,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>24</v>
@@ -10513,7 +10695,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>24</v>
@@ -10536,7 +10718,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>24</v>
@@ -10559,7 +10741,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>24</v>
@@ -10582,7 +10764,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>24</v>
@@ -10605,7 +10787,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>24</v>
@@ -10628,7 +10810,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>24</v>
@@ -10651,7 +10833,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>24</v>
@@ -10674,7 +10856,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -10693,7 +10875,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>24</v>
@@ -10718,7 +10900,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>24</v>
@@ -10741,7 +10923,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>24</v>
@@ -10764,7 +10946,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>24</v>
@@ -10787,7 +10969,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>24</v>
@@ -10810,7 +10992,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -10829,7 +11011,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>24</v>
@@ -10854,7 +11036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>24</v>
@@ -10877,7 +11059,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -10896,7 +11078,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -10915,7 +11097,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -10934,7 +11116,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>24</v>
@@ -10955,7 +11137,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>24</v>
@@ -10978,7 +11160,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>24</v>
@@ -11001,7 +11183,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>24</v>
@@ -11024,7 +11206,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>24</v>
@@ -11047,7 +11229,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>24</v>
@@ -11070,7 +11252,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>24</v>
@@ -11093,7 +11275,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>24</v>
@@ -11116,7 +11298,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>24</v>
@@ -11139,7 +11321,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>24</v>
@@ -11162,7 +11344,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>24</v>
@@ -11185,7 +11367,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -11204,7 +11386,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>24</v>
@@ -11227,7 +11409,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -11246,7 +11428,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>24</v>
@@ -11271,7 +11453,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>24</v>
@@ -11294,7 +11476,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>24</v>
@@ -11317,7 +11499,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>24</v>
@@ -11340,7 +11522,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>24</v>
@@ -11363,7 +11545,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>24</v>
@@ -11386,7 +11568,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>24</v>
@@ -11409,7 +11591,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>24</v>
@@ -11432,7 +11614,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>24</v>
@@ -11455,7 +11637,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>24</v>
@@ -11478,7 +11660,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>24</v>
@@ -11501,7 +11683,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -11520,7 +11702,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>24</v>
@@ -11543,7 +11725,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -11562,7 +11744,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>24</v>
@@ -11583,7 +11765,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -11602,7 +11784,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>24</v>
@@ -11623,7 +11805,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -11642,7 +11824,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>24</v>
@@ -11663,7 +11845,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -11682,7 +11864,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>24</v>
@@ -11705,7 +11887,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -11724,7 +11906,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>24</v>
@@ -11749,7 +11931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>24</v>
@@ -11772,7 +11954,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>24</v>
@@ -11795,7 +11977,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>24</v>
@@ -11818,7 +12000,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>24</v>
@@ -11841,7 +12023,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>24</v>
@@ -11864,7 +12046,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>24</v>
@@ -11887,7 +12069,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>24</v>
@@ -11910,7 +12092,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>24</v>
@@ -11933,7 +12115,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -11952,7 +12134,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>24</v>
@@ -11975,7 +12157,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>24</v>
@@ -11998,7 +12180,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>24</v>
@@ -12021,7 +12203,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>24</v>
@@ -12044,7 +12226,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -12063,7 +12245,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>24</v>
@@ -12086,7 +12268,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>24</v>
@@ -12109,7 +12291,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>24</v>
@@ -12134,7 +12316,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -12153,7 +12335,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>24</v>
@@ -12178,7 +12360,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>24</v>
@@ -12201,7 +12383,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -12220,7 +12402,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>24</v>
@@ -12241,7 +12423,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>24</v>
@@ -12262,7 +12444,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>24</v>
@@ -12285,7 +12467,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -12304,7 +12486,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -12323,7 +12505,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>24</v>
@@ -12348,7 +12530,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>24</v>

--- a/spec/files/no_variables.xlsx
+++ b/spec/files/no_variables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="564" windowWidth="25044" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4111,12 +4111,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
       <sheetName val="Setup"/>
       <sheetName val="Variables"/>
+      <sheetName val="Outputs"/>
       <sheetName val="BCL Measure Data"/>
       <sheetName val="Lookups"/>
     </sheetNames>
@@ -4125,7 +4126,8 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
             <v>m2.xlarge</v>
@@ -4465,21 +4467,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4503,17 +4505,17 @@
       <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="18"/>
@@ -4522,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>445</v>
       </c>
@@ -4531,7 +4533,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>449</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>452</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -4589,7 +4591,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -4608,7 +4610,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
@@ -4627,7 +4629,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>458</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A15" s="11" t="s">
         <v>459</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>461</v>
       </c>
@@ -4671,7 +4673,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
@@ -4684,7 +4686,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
@@ -4775,25 +4777,25 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="4"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="4"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="7" t="s">
@@ -4821,7 +4823,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4834,7 +4836,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" customFormat="1" ht="15">
       <c r="A4" s="17" t="b">
         <v>1</v>
       </c>
@@ -4918,7 +4920,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" customFormat="1" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
@@ -4957,7 +4959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" customFormat="1" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>24</v>
@@ -4980,7 +4982,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" customFormat="1" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>24</v>
@@ -5003,7 +5005,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" customFormat="1" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
@@ -5045,30 +5047,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="4"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="4"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="8" t="s">
         <v>464</v>
       </c>
@@ -5102,7 +5104,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15">
       <c r="A2" s="14"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5115,7 +5117,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="15">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5133,7 +5135,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" customFormat="1" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5144,7 +5146,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" customFormat="1" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5158,7 +5160,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" customFormat="1" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5169,7 +5171,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" customFormat="1" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5180,7 +5182,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" customFormat="1" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5197,6 +5199,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5208,19 +5215,19 @@
       <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -5239,7 +5246,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -5260,7 +5267,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>24</v>
@@ -5283,7 +5290,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>24</v>
@@ -5306,7 +5313,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
@@ -5329,7 +5336,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>24</v>
@@ -5352,7 +5359,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>24</v>
@@ -5375,7 +5382,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
@@ -5398,7 +5405,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
@@ -5421,7 +5428,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>24</v>
@@ -5444,7 +5451,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -5463,7 +5470,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>24</v>
@@ -5484,7 +5491,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>24</v>
@@ -5507,7 +5514,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>24</v>
@@ -5530,7 +5537,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>24</v>
@@ -5553,7 +5560,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>24</v>
@@ -5576,7 +5583,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>24</v>
@@ -5599,7 +5606,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>24</v>
@@ -5622,7 +5629,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>24</v>
@@ -5645,7 +5652,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>24</v>
@@ -5668,7 +5675,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -5687,7 +5694,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>24</v>
@@ -5710,7 +5717,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>24</v>
@@ -5733,7 +5740,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>24</v>
@@ -5756,7 +5763,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>24</v>
@@ -5779,7 +5786,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>24</v>
@@ -5802,7 +5809,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>24</v>
@@ -5825,7 +5832,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>24</v>
@@ -5848,7 +5855,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>24</v>
@@ -5871,7 +5878,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>24</v>
@@ -5894,7 +5901,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -5913,7 +5920,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>24</v>
@@ -5934,7 +5941,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>24</v>
@@ -5957,7 +5964,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>24</v>
@@ -5980,7 +5987,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>24</v>
@@ -6003,7 +6010,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>24</v>
@@ -6026,7 +6033,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>24</v>
@@ -6049,7 +6056,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>24</v>
@@ -6072,7 +6079,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>24</v>
@@ -6095,7 +6102,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>24</v>
@@ -6118,7 +6125,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -6137,7 +6144,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>24</v>
@@ -6158,7 +6165,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>24</v>
@@ -6181,7 +6188,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>24</v>
@@ -6204,7 +6211,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>24</v>
@@ -6227,7 +6234,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>24</v>
@@ -6250,7 +6257,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>24</v>
@@ -6273,7 +6280,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>24</v>
@@ -6296,7 +6303,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>24</v>
@@ -6319,7 +6326,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>24</v>
@@ -6342,7 +6349,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -6361,7 +6368,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>24</v>
@@ -6382,7 +6389,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>24</v>
@@ -6405,7 +6412,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>24</v>
@@ -6428,7 +6435,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>24</v>
@@ -6451,7 +6458,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>24</v>
@@ -6474,7 +6481,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>24</v>
@@ -6497,7 +6504,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>24</v>
@@ -6520,7 +6527,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>24</v>
@@ -6543,7 +6550,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>24</v>
@@ -6566,7 +6573,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -6585,7 +6592,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>24</v>
@@ -6606,7 +6613,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>24</v>
@@ -6631,7 +6638,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>24</v>
@@ -6654,7 +6661,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>24</v>
@@ -6677,7 +6684,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>24</v>
@@ -6700,7 +6707,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>24</v>
@@ -6723,7 +6730,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>24</v>
@@ -6746,7 +6753,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>24</v>
@@ -6769,7 +6776,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>24</v>
@@ -6792,7 +6799,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>24</v>
@@ -6815,7 +6822,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -6834,7 +6841,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>24</v>
@@ -6855,7 +6862,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>24</v>
@@ -6878,7 +6885,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>24</v>
@@ -6903,7 +6910,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>24</v>
@@ -6926,7 +6933,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>24</v>
@@ -6949,7 +6956,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>24</v>
@@ -6972,7 +6979,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>24</v>
@@ -6995,7 +7002,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>24</v>
@@ -7018,7 +7025,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>24</v>
@@ -7041,7 +7048,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>24</v>
@@ -7064,7 +7071,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>24</v>
@@ -7087,7 +7094,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>24</v>
@@ -7110,7 +7117,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>24</v>
@@ -7133,7 +7140,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -7152,7 +7159,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>24</v>
@@ -7175,7 +7182,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>24</v>
@@ -7198,7 +7205,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>24</v>
@@ -7221,7 +7228,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>24</v>
@@ -7244,7 +7251,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>24</v>
@@ -7267,7 +7274,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>24</v>
@@ -7290,7 +7297,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>24</v>
@@ -7313,7 +7320,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>24</v>
@@ -7336,7 +7343,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>24</v>
@@ -7359,7 +7366,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>24</v>
@@ -7382,7 +7389,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -7401,7 +7408,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>24</v>
@@ -7426,7 +7433,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -7445,7 +7452,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>24</v>
@@ -7466,7 +7473,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>24</v>
@@ -7491,7 +7498,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -7510,7 +7517,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>24</v>
@@ -7533,7 +7540,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>24</v>
@@ -7558,7 +7565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>24</v>
@@ -7581,7 +7588,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>24</v>
@@ -7602,7 +7609,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -7621,7 +7628,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>24</v>
@@ -7646,7 +7653,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>24</v>
@@ -7669,7 +7676,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>24</v>
@@ -7692,7 +7699,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>24</v>
@@ -7715,7 +7722,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>24</v>
@@ -7738,7 +7745,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>24</v>
@@ -7761,7 +7768,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>24</v>
@@ -7784,7 +7791,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -7803,7 +7810,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>24</v>
@@ -7826,7 +7833,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>24</v>
@@ -7849,7 +7856,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>24</v>
@@ -7872,7 +7879,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -7891,7 +7898,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>24</v>
@@ -7914,7 +7921,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>24</v>
@@ -7937,7 +7944,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>24</v>
@@ -7960,7 +7967,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>24</v>
@@ -7983,7 +7990,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>24</v>
@@ -8006,7 +8013,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>24</v>
@@ -8029,7 +8036,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -8048,7 +8055,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>24</v>
@@ -8073,7 +8080,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>24</v>
@@ -8096,7 +8103,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>24</v>
@@ -8119,7 +8126,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>24</v>
@@ -8142,7 +8149,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>24</v>
@@ -8165,7 +8172,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>24</v>
@@ -8188,7 +8195,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>24</v>
@@ -8211,7 +8218,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>24</v>
@@ -8234,7 +8241,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>24</v>
@@ -8257,7 +8264,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -8276,7 +8283,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>24</v>
@@ -8301,7 +8308,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>24</v>
@@ -8322,7 +8329,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>24</v>
@@ -8345,7 +8352,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>24</v>
@@ -8368,7 +8375,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>24</v>
@@ -8391,7 +8398,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>24</v>
@@ -8414,7 +8421,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>24</v>
@@ -8437,7 +8444,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>24</v>
@@ -8460,7 +8467,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>24</v>
@@ -8483,7 +8490,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>24</v>
@@ -8506,7 +8513,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>24</v>
@@ -8529,7 +8536,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>24</v>
@@ -8552,7 +8559,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>24</v>
@@ -8575,7 +8582,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>24</v>
@@ -8598,7 +8605,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -8617,7 +8624,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>24</v>
@@ -8640,7 +8647,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -8659,7 +8666,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>24</v>
@@ -8682,7 +8689,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>24</v>
@@ -8705,7 +8712,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -8724,7 +8731,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>24</v>
@@ -8749,7 +8756,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>24</v>
@@ -8772,7 +8779,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>24</v>
@@ -8795,7 +8802,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>24</v>
@@ -8818,7 +8825,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>24</v>
@@ -8841,7 +8848,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>24</v>
@@ -8864,7 +8871,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>24</v>
@@ -8887,7 +8894,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>24</v>
@@ -8910,7 +8917,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>24</v>
@@ -8933,7 +8940,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>24</v>
@@ -8956,7 +8963,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -8975,7 +8982,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>24</v>
@@ -9000,7 +9007,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>24</v>
@@ -9023,7 +9030,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>24</v>
@@ -9046,7 +9053,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>24</v>
@@ -9069,7 +9076,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>24</v>
@@ -9092,7 +9099,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>24</v>
@@ -9115,7 +9122,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>24</v>
@@ -9138,7 +9145,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>24</v>
@@ -9161,7 +9168,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>24</v>
@@ -9184,7 +9191,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>24</v>
@@ -9207,7 +9214,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -9226,7 +9233,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>24</v>
@@ -9249,7 +9256,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>24</v>
@@ -9272,7 +9279,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>24</v>
@@ -9295,7 +9302,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>24</v>
@@ -9318,7 +9325,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -9337,7 +9344,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>24</v>
@@ -9360,7 +9367,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>24</v>
@@ -9383,7 +9390,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>24</v>
@@ -9406,7 +9413,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>24</v>
@@ -9429,7 +9436,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -9448,7 +9455,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>24</v>
@@ -9469,7 +9476,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>24</v>
@@ -9492,7 +9499,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -9511,7 +9518,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>24</v>
@@ -9534,7 +9541,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>24</v>
@@ -9559,7 +9566,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>24</v>
@@ -9580,7 +9587,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>24</v>
@@ -9605,7 +9612,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>24</v>
@@ -9630,7 +9637,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -9649,7 +9656,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>24</v>
@@ -9674,7 +9681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>24</v>
@@ -9697,7 +9704,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>24</v>
@@ -9720,7 +9727,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>24</v>
@@ -9743,7 +9750,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>24</v>
@@ -9766,7 +9773,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>24</v>
@@ -9789,7 +9796,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>24</v>
@@ -9812,7 +9819,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>24</v>
@@ -9835,7 +9842,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>24</v>
@@ -9858,7 +9865,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -9877,7 +9884,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>24</v>
@@ -9902,7 +9909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>24</v>
@@ -9925,7 +9932,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>24</v>
@@ -9948,7 +9955,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>24</v>
@@ -9971,7 +9978,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>24</v>
@@ -9994,7 +10001,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>24</v>
@@ -10017,7 +10024,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>24</v>
@@ -10040,7 +10047,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>24</v>
@@ -10063,7 +10070,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>24</v>
@@ -10086,7 +10093,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -10105,7 +10112,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>24</v>
@@ -10126,7 +10133,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>24</v>
@@ -10149,7 +10156,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>24</v>
@@ -10172,7 +10179,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>24</v>
@@ -10195,7 +10202,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>24</v>
@@ -10218,7 +10225,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>24</v>
@@ -10241,7 +10248,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>24</v>
@@ -10264,7 +10271,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>24</v>
@@ -10287,7 +10294,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>24</v>
@@ -10310,7 +10317,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>24</v>
@@ -10333,7 +10340,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>24</v>
@@ -10356,7 +10363,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>24</v>
@@ -10379,7 +10386,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>24</v>
@@ -10402,7 +10409,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>24</v>
@@ -10425,7 +10432,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>24</v>
@@ -10448,7 +10455,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>24</v>
@@ -10471,7 +10478,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -10490,7 +10497,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>24</v>
@@ -10511,7 +10518,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>24</v>
@@ -10534,7 +10541,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>24</v>
@@ -10557,7 +10564,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>24</v>
@@ -10580,7 +10587,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>24</v>
@@ -10603,7 +10610,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>24</v>
@@ -10626,7 +10633,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>24</v>
@@ -10649,7 +10656,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>24</v>
@@ -10672,7 +10679,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>24</v>
@@ -10695,7 +10702,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>24</v>
@@ -10718,7 +10725,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>24</v>
@@ -10741,7 +10748,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>24</v>
@@ -10764,7 +10771,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>24</v>
@@ -10787,7 +10794,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>24</v>
@@ -10810,7 +10817,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>24</v>
@@ -10833,7 +10840,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>24</v>
@@ -10856,7 +10863,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -10875,7 +10882,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>24</v>
@@ -10900,7 +10907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>24</v>
@@ -10923,7 +10930,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>24</v>
@@ -10946,7 +10953,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>24</v>
@@ -10969,7 +10976,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>24</v>
@@ -10992,7 +10999,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -11011,7 +11018,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>24</v>
@@ -11036,7 +11043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>24</v>
@@ -11059,7 +11066,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -11078,7 +11085,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -11097,7 +11104,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -11116,7 +11123,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>24</v>
@@ -11137,7 +11144,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>24</v>
@@ -11160,7 +11167,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>24</v>
@@ -11183,7 +11190,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>24</v>
@@ -11206,7 +11213,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>24</v>
@@ -11229,7 +11236,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>24</v>
@@ -11252,7 +11259,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>24</v>
@@ -11275,7 +11282,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>24</v>
@@ -11298,7 +11305,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>24</v>
@@ -11321,7 +11328,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>24</v>
@@ -11344,7 +11351,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>24</v>
@@ -11367,7 +11374,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -11386,7 +11393,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>24</v>
@@ -11409,7 +11416,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -11428,7 +11435,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>24</v>
@@ -11453,7 +11460,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>24</v>
@@ -11476,7 +11483,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>24</v>
@@ -11499,7 +11506,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>24</v>
@@ -11522,7 +11529,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>24</v>
@@ -11545,7 +11552,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>24</v>
@@ -11568,7 +11575,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>24</v>
@@ -11591,7 +11598,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>24</v>
@@ -11614,7 +11621,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>24</v>
@@ -11637,7 +11644,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>24</v>
@@ -11660,7 +11667,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>24</v>
@@ -11683,7 +11690,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -11702,7 +11709,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>24</v>
@@ -11725,7 +11732,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -11744,7 +11751,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>24</v>
@@ -11765,7 +11772,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -11784,7 +11791,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>24</v>
@@ -11805,7 +11812,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -11824,7 +11831,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>24</v>
@@ -11845,7 +11852,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -11864,7 +11871,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>24</v>
@@ -11887,7 +11894,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -11906,7 +11913,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>24</v>
@@ -11931,7 +11938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>24</v>
@@ -11954,7 +11961,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>24</v>
@@ -11977,7 +11984,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>24</v>
@@ -12000,7 +12007,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>24</v>
@@ -12023,7 +12030,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>24</v>
@@ -12046,7 +12053,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>24</v>
@@ -12069,7 +12076,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>24</v>
@@ -12092,7 +12099,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>24</v>
@@ -12115,7 +12122,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -12134,7 +12141,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>24</v>
@@ -12157,7 +12164,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>24</v>
@@ -12180,7 +12187,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>24</v>
@@ -12203,7 +12210,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>24</v>
@@ -12226,7 +12233,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -12245,7 +12252,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>24</v>
@@ -12268,7 +12275,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>24</v>
@@ -12291,7 +12298,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>24</v>
@@ -12316,7 +12323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -12335,7 +12342,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>24</v>
@@ -12360,7 +12367,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>24</v>
@@ -12383,7 +12390,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -12402,7 +12409,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>24</v>
@@ -12423,7 +12430,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>24</v>
@@ -12444,7 +12451,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>24</v>
@@ -12467,7 +12474,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -12486,7 +12493,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -12505,7 +12512,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>24</v>
@@ -12530,7 +12537,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>24</v>

--- a/spec/files/no_variables.xlsx
+++ b/spec/files/no_variables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="12820"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="12820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="474">
   <si>
     <t>type</t>
   </si>
@@ -1443,6 +1443,15 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1555,8 +1564,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1243">
+  <cellStyleXfs count="1249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2855,7 +2870,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1243">
+  <cellStyles count="1249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3477,6 +3492,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4098,6 +4116,9 @@
     <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4467,7 +4488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -5045,16 +5066,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -5070,54 +5091,70 @@
     <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="8" t="s">
         <v>464</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="15">
+      <c r="G1" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15">
       <c r="A2" s="14"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="10" t="s">
+        <v>473</v>
+      </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" ht="15">
+    <row r="3" spans="1:28" s="14" customFormat="1" ht="15">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5135,7 +5172,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="15">
+    <row r="4" spans="1:28" customFormat="1" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5146,7 +5183,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:22" customFormat="1" ht="15">
+    <row r="5" spans="1:28" customFormat="1" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5160,7 +5197,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="15">
+    <row r="6" spans="1:28" customFormat="1" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5171,7 +5208,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:22" customFormat="1" ht="15">
+    <row r="7" spans="1:28" customFormat="1" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5182,7 +5219,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:22" customFormat="1" ht="15">
+    <row r="8" spans="1:28" customFormat="1" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5194,9 +5231,6 @@
       <c r="I8" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Q1:V1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
